--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_05_end.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_05_end.xlsx
@@ -924,7 +924,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Whoa, there! Even less close for comfort!
+    <t xml:space="preserve">[name="Mr. Nothing"]Whoa, there! Even less close for comfort!
 </t>
   </si>
   <si>
@@ -932,7 +932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Let's ignore this fellow for now! There seems be something disastrous afoot outside! Young lady, hold on tight, we're going to slip out of here!
+    <t xml:space="preserve">[name="Mr. Nothing"]Let's ignore this fellow for now! There seems be something disastrous afoot outside! Young lady, hold on tight, we're going to slip out of here!
 </t>
   </si>
   <si>
@@ -940,7 +940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Another one?!
+    <t xml:space="preserve">[name="Mr. Nothing"]Another one?!
 </t>
   </si>
   <si>
@@ -1020,7 +1020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ow, ow! My dear young lady! Might you be able to stop pulling on my hair!
+    <t xml:space="preserve">[name="Mr. Nothing"]Ow, ow! My dear young lady! Might you be able to stop pulling on my hair!
 </t>
   </si>
   <si>
@@ -1028,7 +1028,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]These cretins only keep gkh-gkh-gkhing! How can things so bent on chasing you not spit out a human word or two?!
+    <t xml:space="preserve">[name="Mr. Nothing"]These cretins only keep gkh-gkh-gkhing! How can things so bent on chasing you not spit out a human word or two?!
 </t>
   </si>
   <si>
@@ -1040,7 +1040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Good heavens, I was only joking! You need not! You absolutely need not—!
+    <t xml:space="preserve">[name="Mr. Nothing"]Good heavens, I was only joking! You need not! You absolutely need not—!
 </t>
   </si>
   <si>
@@ -1048,7 +1048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Eh?
+    <t xml:space="preserve">[name="Mr. Nothing"]Eh?
 </t>
   </si>
   <si>
@@ -1068,7 +1068,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]What can I possibly think of?!
+    <t xml:space="preserve">[name="Mr. Nothing"]What can I possibly think of?!
 </t>
   </si>
   <si>
@@ -1076,7 +1076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I... I'm...
+    <t xml:space="preserve">[name="Mr. Nothing"]I... I'm...
 </t>
   </si>
   <si>
@@ -1084,7 +1084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]......
+    <t xml:space="preserve">[name="Mr. Nothing"]......
 </t>
   </si>
   <si>
@@ -1108,7 +1108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Hide yourselves further away.
+    <t xml:space="preserve">[name="Mr. Nothing"]Hide yourselves further away.
 </t>
   </si>
   <si>
@@ -1128,11 +1128,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ow-Owie, it hurts so much, it hurts so much—just what are these things, and how can they look so soft, yet be so hard when striking them?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Oh, stop goggling at me. The proverb puts it well; even a cornered burdenbeast will bite. Here, we'd best just hurry on our way!
+    <t xml:space="preserve">[name="Mr. Nothing"]Ow-Owie, it hurts so much, it hurts so much—just what are these things, and how can they look so soft, yet be so hard when striking them?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Oh, stop goggling at me. The proverb puts it well; even a cornered burdenbeast will bite. Here, we'd best just hurry on our way!
 </t>
   </si>
   <si>
@@ -1140,7 +1140,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]?!
+    <t xml:space="preserve">[name="Mr. Nothing"]?!
 </t>
   </si>
   <si>
@@ -1152,7 +1152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ah, ahahah... that was quite dangerous just now! My apologies for the grief I gave you, benefactor. Only thanks to you am I safe and sound.
+    <t xml:space="preserve">[name="Mr. Nothing"]Ah, ahahah... that was quite dangerous just now! My apologies for the grief I gave you, benefactor. Only thanks to you am I safe and sound.
 </t>
   </si>
   <si>
@@ -1160,7 +1160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Er, what about you, benefactor?
+    <t xml:space="preserve">[name="Mr. Nothing"]Er, what about you, benefactor?
 </t>
   </si>
   <si>
@@ -1168,7 +1168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"](Can the single skill of light-footedness really explain that?!)
+    <t xml:space="preserve">[name="Mr. Nothing"](Can the single skill of light-footedness really explain that?!)
 </t>
   </si>
   <si>
@@ -1456,7 +1456,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="우요우"]네?
+    <t xml:space="preserve">[name="우요우"]어?
 </t>
   </si>
   <si>
